--- a/product_ranking_ombre_eyelash_extension.xlsx
+++ b/product_ranking_ombre_eyelash_extension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+  <si>
+    <t>2018-10-17 19:36:09</t>
+  </si>
   <si>
     <t>2018-10-15 11:14:02</t>
   </si>
@@ -28,6 +31,9 @@
     <t>2018-10-15 10:15:02</t>
   </si>
   <si>
+    <t>Professional Two Tone Color Lash Ombre Lash Ombre Lash Ombre Eyelash Extension</t>
+  </si>
+  <si>
     <t>Professional Ombre Lash Ombre Lash Extension Ombre Color Eyelash Extension</t>
   </si>
   <si>
@@ -37,9 +43,15 @@
     <t>ombre lash</t>
   </si>
   <si>
+    <t>ombre eyelash extension</t>
+  </si>
+  <si>
     <t>ombre eyelash</t>
   </si>
   <si>
+    <t>two tone lash</t>
+  </si>
+  <si>
     <t>ombre lash extension</t>
   </si>
   <si>
@@ -49,42 +61,58 @@
     <t>ombre lashes</t>
   </si>
   <si>
+    <t>2-19</t>
+  </si>
+  <si>
     <t>1-13</t>
   </si>
   <si>
     <t>ombre eyelash extensions</t>
   </si>
   <si>
+    <t>1-28</t>
+  </si>
+  <si>
     <t>1-33</t>
   </si>
   <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>two tone eyelash extension</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
     <t>ombre eyelashes</t>
   </si>
   <si>
+    <t>2-25</t>
+  </si>
+  <si>
     <t>1-17</t>
   </si>
   <si>
+    <t>two tone eyelash</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
     <t>ombre color eyelash extensions</t>
   </si>
   <si>
-    <t>1-29</t>
-  </si>
-  <si>
-    <t>1-28</t>
+    <t>1-25</t>
   </si>
   <si>
     <t>ombre lash extension</t>
   </si>
   <si>
+    <t>1-15</t>
+  </si>
+  <si>
     <t>2-9</t>
-  </si>
-  <si>
-    <t>ombre color eyelash extensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ombre lash extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,27 +701,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="4.625" style="17" customWidth="1"/>
-    <col min="4" max="7" width="30.625" style="20" customWidth="1"/>
-    <col min="8" max="17" width="30.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="30.625" style="4" customWidth="1"/>
-    <col min="20" max="23" width="31" style="4" customWidth="1"/>
-    <col min="24" max="24" width="31" style="8" customWidth="1"/>
-    <col min="25" max="25" width="41.625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="45.75" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.625" style="47" customWidth="1"/>
+    <col min="4" max="8" width="30.625" style="20" customWidth="1"/>
+    <col min="9" max="18" width="30.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="30.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="30.625" style="4" customWidth="1"/>
+    <col min="21" max="24" width="31" style="4" customWidth="1"/>
+    <col min="25" max="25" width="31" style="8" customWidth="1"/>
+    <col min="26" max="26" width="41.625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="45.75" style="3" customWidth="1"/>
+    <col min="28" max="28" width="40.625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -704,7 +732,9 @@
       <c r="F1" s="47">
         <v>60836476886</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="47">
+        <v>60836476886</v>
+      </c>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
@@ -717,15 +747,16 @@
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
-      <c r="U1" s="47"/>
+      <c r="T1" s="47"/>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
       <c r="AA1" s="47"/>
-    </row>
-    <row r="2" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="47"/>
+    </row>
+    <row r="2" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -736,7 +767,9 @@
       <c r="F2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
@@ -746,66 +779,72 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
-      <c r="Q2" s="34"/>
+      <c r="Q2" s="25"/>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="25"/>
       <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="W2" s="26"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="34"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28"/>
       <c r="AA2" s="34"/>
-    </row>
-    <row r="3" spans="1:27" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="34"/>
+    </row>
+    <row r="3" spans="1:28" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="12">
         <f>LEN(E3)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="12"/>
-      <c r="U3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="52"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -813,31 +852,34 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-      <c r="U4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:27" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="52"/>
       <c r="E5" s="52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="52"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -845,31 +887,34 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="U5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="52"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -877,19 +922,20 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="14"/>
-      <c r="U6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="14"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -900,16 +946,18 @@
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="45"/>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
@@ -917,19 +965,20 @@
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="46"/>
-      <c r="V7" s="48"/>
+      <c r="V7" s="46"/>
       <c r="W7" s="48"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
       <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
-    </row>
-    <row r="8" spans="1:27" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+    </row>
+    <row r="8" spans="1:28" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -940,17 +989,19 @@
         <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
@@ -958,39 +1009,36 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="36"/>
+      <c r="V8" s="33"/>
       <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="38"/>
-      <c r="AA8" s="39"/>
-    </row>
-    <row r="9" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+    </row>
+    <row r="9" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52">
         <v>12</v>
       </c>
+      <c r="B9" s="52">
+        <v>2</v>
+      </c>
+      <c r="C9" s="52">
+        <v>124</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="45"/>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
@@ -998,39 +1046,36 @@
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="45"/>
       <c r="U9" s="46"/>
-      <c r="V9" s="48"/>
+      <c r="V9" s="46"/>
       <c r="W9" s="48"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
       <c r="Z9" s="50"/>
-      <c r="AA9" s="51"/>
-    </row>
-    <row r="10" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
-        <v>42</v>
-      </c>
-      <c r="B10" s="55">
-        <v>2</v>
-      </c>
-      <c r="C10" s="55">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="51"/>
+    </row>
+    <row r="10" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52">
+        <v>34</v>
+      </c>
+      <c r="B10" s="52">
+        <v>3</v>
+      </c>
+      <c r="C10" s="52">
+        <v>110</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -1038,39 +1083,42 @@
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="45"/>
       <c r="U10" s="46"/>
-      <c r="V10" s="48"/>
+      <c r="V10" s="46"/>
       <c r="W10" s="48"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
       <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
-    </row>
-    <row r="11" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
-        <v>2</v>
-      </c>
-      <c r="B11" s="55">
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="51"/>
+    </row>
+    <row r="11" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="55">
-        <v>50</v>
+      <c r="C11">
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="45"/>
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
@@ -1078,21 +1126,39 @@
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="45"/>
       <c r="U11" s="46"/>
-      <c r="V11" s="48"/>
+      <c r="V11" s="46"/>
       <c r="W11" s="48"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
       <c r="Z11" s="50"/>
-      <c r="AA11" s="51"/>
-    </row>
-    <row r="12" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="51"/>
+    </row>
+    <row r="12" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
+        <v>21</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43">
+        <v>92</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
@@ -1100,43 +1166,85 @@
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="45"/>
       <c r="U12" s="46"/>
-      <c r="V12" s="48"/>
+      <c r="V12" s="46"/>
       <c r="W12" s="48"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
       <c r="Z12" s="50"/>
-      <c r="AA12" s="51"/>
-    </row>
-    <row r="13" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="51"/>
+    </row>
+    <row r="13" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
+        <v>42</v>
+      </c>
+      <c r="B13" s="55">
+        <v>2</v>
+      </c>
+      <c r="C13" s="55">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="46"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="48"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
       <c r="W13" s="48"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
       <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
-    </row>
-    <row r="14" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="51"/>
+    </row>
+    <row r="14" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>2</v>
+      </c>
+      <c r="B14" s="55">
+        <v>0</v>
+      </c>
+      <c r="C14" s="55">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="45"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
@@ -1144,21 +1252,21 @@
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="45"/>
       <c r="U14" s="46"/>
-      <c r="V14" s="48"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="48"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
       <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
-    </row>
-    <row r="15" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="51"/>
+    </row>
+    <row r="15" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="45"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
@@ -1166,43 +1274,43 @@
       <c r="N15" s="46"/>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="45"/>
       <c r="U15" s="46"/>
-      <c r="V15" s="48"/>
+      <c r="V15" s="46"/>
       <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="49"/>
       <c r="Z15" s="50"/>
-      <c r="AA15" s="51"/>
-    </row>
-    <row r="16" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="48"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
+    </row>
+    <row r="16" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="48"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="50"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
       <c r="Z16" s="50"/>
-      <c r="AA16" s="51"/>
-    </row>
-    <row r="17" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="51"/>
+    </row>
+    <row r="17" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="45"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
@@ -1210,21 +1318,21 @@
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="45"/>
       <c r="U17" s="46"/>
-      <c r="V17" s="48"/>
+      <c r="V17" s="46"/>
       <c r="W17" s="48"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
       <c r="Z17" s="50"/>
-      <c r="AA17" s="51"/>
-    </row>
-    <row r="18" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
+    </row>
+    <row r="18" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="45"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
@@ -1232,48 +1340,42 @@
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
       <c r="P18" s="46"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="45"/>
       <c r="U18" s="46"/>
-      <c r="V18" s="48"/>
+      <c r="V18" s="46"/>
       <c r="W18" s="48"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="50"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
       <c r="Z18" s="50"/>
-      <c r="AA18" s="51"/>
-    </row>
-    <row r="19" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="48"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="51"/>
+    </row>
+    <row r="19" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
       <c r="W19" s="48"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="50"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
       <c r="Z19" s="50"/>
-      <c r="AA19" s="51"/>
-    </row>
-    <row r="20" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="51"/>
+    </row>
+    <row r="20" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -1281,8 +1383,8 @@
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -1290,19 +1392,20 @@
       <c r="N20" s="46"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="45"/>
       <c r="U20" s="46"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="46"/>
       <c r="W20" s="48"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="50"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="49"/>
       <c r="Z20" s="50"/>
-      <c r="AA20" s="51"/>
-    </row>
-    <row r="21" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="51"/>
+    </row>
+    <row r="21" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1310,8 +1413,8 @@
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -1319,19 +1422,20 @@
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="45"/>
       <c r="U21" s="46"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="46"/>
       <c r="W21" s="48"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="49"/>
       <c r="Z21" s="50"/>
-      <c r="AA21" s="51"/>
-    </row>
-    <row r="22" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="51"/>
+    </row>
+    <row r="22" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -1339,8 +1443,8 @@
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="46"/>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
@@ -1348,19 +1452,20 @@
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
       <c r="P22" s="46"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="45"/>
       <c r="U22" s="46"/>
-      <c r="V22" s="48"/>
+      <c r="V22" s="46"/>
       <c r="W22" s="48"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="50"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
       <c r="Z22" s="50"/>
-      <c r="AA22" s="51"/>
-    </row>
-    <row r="23" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="51"/>
+    </row>
+    <row r="23" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -1368,8 +1473,8 @@
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
@@ -1377,19 +1482,20 @@
       <c r="N23" s="46"/>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="45"/>
       <c r="U23" s="46"/>
-      <c r="V23" s="48"/>
+      <c r="V23" s="46"/>
       <c r="W23" s="48"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="50"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="49"/>
       <c r="Z23" s="50"/>
-      <c r="AA23" s="51"/>
-    </row>
-    <row r="24" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="51"/>
+    </row>
+    <row r="24" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -1397,8 +1503,8 @@
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="46"/>
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
@@ -1406,19 +1512,20 @@
       <c r="N24" s="46"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="45"/>
       <c r="U24" s="46"/>
-      <c r="V24" s="48"/>
+      <c r="V24" s="46"/>
       <c r="W24" s="48"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="50"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="49"/>
       <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-    </row>
-    <row r="25" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="51"/>
+    </row>
+    <row r="25" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1426,8 +1533,8 @@
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -1435,19 +1542,20 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
       <c r="P25" s="46"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="45"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="48"/>
+      <c r="V25" s="46"/>
       <c r="W25" s="48"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="50"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
       <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
-    </row>
-    <row r="26" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="51"/>
+    </row>
+    <row r="26" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -1455,8 +1563,8 @@
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -1464,19 +1572,20 @@
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="45"/>
       <c r="U26" s="46"/>
-      <c r="V26" s="48"/>
+      <c r="V26" s="46"/>
       <c r="W26" s="48"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="50"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="49"/>
       <c r="Z26" s="50"/>
-      <c r="AA26" s="51"/>
-    </row>
-    <row r="27" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="51"/>
+    </row>
+    <row r="27" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -1484,8 +1593,8 @@
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
@@ -1493,19 +1602,20 @@
       <c r="N27" s="46"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="45"/>
       <c r="U27" s="46"/>
-      <c r="V27" s="48"/>
+      <c r="V27" s="46"/>
       <c r="W27" s="48"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="49"/>
       <c r="Z27" s="50"/>
-      <c r="AA27" s="51"/>
-    </row>
-    <row r="28" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="51"/>
+    </row>
+    <row r="28" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -1513,8 +1623,8 @@
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="46"/>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
@@ -1522,19 +1632,20 @@
       <c r="N28" s="46"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="45"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="48"/>
+      <c r="V28" s="46"/>
       <c r="W28" s="48"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="50"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="49"/>
       <c r="Z28" s="50"/>
-      <c r="AA28" s="51"/>
-    </row>
-    <row r="29" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="51"/>
+    </row>
+    <row r="29" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -1542,8 +1653,8 @@
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
@@ -1551,19 +1662,20 @@
       <c r="N29" s="46"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="45"/>
       <c r="U29" s="46"/>
-      <c r="V29" s="48"/>
+      <c r="V29" s="46"/>
       <c r="W29" s="48"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="50"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="50"/>
-      <c r="AA29" s="51"/>
-    </row>
-    <row r="30" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="51"/>
+    </row>
+    <row r="30" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -1571,8 +1683,8 @@
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
@@ -1580,19 +1692,20 @@
       <c r="N30" s="46"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="45"/>
       <c r="U30" s="46"/>
-      <c r="V30" s="48"/>
+      <c r="V30" s="46"/>
       <c r="W30" s="48"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="50"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="49"/>
       <c r="Z30" s="50"/>
-      <c r="AA30" s="51"/>
-    </row>
-    <row r="31" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="51"/>
+    </row>
+    <row r="31" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -1600,8 +1713,8 @@
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="46"/>
@@ -1609,19 +1722,20 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="45"/>
       <c r="U31" s="46"/>
-      <c r="V31" s="48"/>
+      <c r="V31" s="46"/>
       <c r="W31" s="48"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="49"/>
       <c r="Z31" s="50"/>
-      <c r="AA31" s="51"/>
-    </row>
-    <row r="32" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="51"/>
+    </row>
+    <row r="32" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -1629,8 +1743,8 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
       <c r="L32" s="46"/>
@@ -1638,19 +1752,20 @@
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="45"/>
       <c r="U32" s="46"/>
-      <c r="V32" s="48"/>
+      <c r="V32" s="46"/>
       <c r="W32" s="48"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="50"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="49"/>
       <c r="Z32" s="50"/>
-      <c r="AA32" s="51"/>
-    </row>
-    <row r="33" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="51"/>
+    </row>
+    <row r="33" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -1658,8 +1773,8 @@
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
       <c r="L33" s="46"/>
@@ -1667,19 +1782,20 @@
       <c r="N33" s="46"/>
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="45"/>
       <c r="U33" s="46"/>
-      <c r="V33" s="48"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="48"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="50"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="49"/>
       <c r="Z33" s="50"/>
-      <c r="AA33" s="51"/>
-    </row>
-    <row r="34" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="51"/>
+    </row>
+    <row r="34" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -1687,8 +1803,8 @@
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="46"/>
       <c r="K34" s="46"/>
       <c r="L34" s="46"/>
@@ -1696,19 +1812,20 @@
       <c r="N34" s="46"/>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="45"/>
       <c r="U34" s="46"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="46"/>
       <c r="W34" s="48"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="49"/>
       <c r="Z34" s="50"/>
-      <c r="AA34" s="51"/>
-    </row>
-    <row r="35" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="51"/>
+    </row>
+    <row r="35" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -1716,8 +1833,8 @@
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="46"/>
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
@@ -1725,19 +1842,20 @@
       <c r="N35" s="46"/>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="45"/>
       <c r="U35" s="46"/>
-      <c r="V35" s="48"/>
+      <c r="V35" s="46"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="50"/>
-      <c r="AA35" s="51"/>
-    </row>
-    <row r="36" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="51"/>
+    </row>
+    <row r="36" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -1745,8 +1863,8 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="46"/>
       <c r="K36" s="46"/>
       <c r="L36" s="46"/>
@@ -1754,19 +1872,20 @@
       <c r="N36" s="46"/>
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="45"/>
       <c r="U36" s="46"/>
-      <c r="V36" s="48"/>
+      <c r="V36" s="46"/>
       <c r="W36" s="48"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="50"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="49"/>
       <c r="Z36" s="50"/>
-      <c r="AA36" s="51"/>
-    </row>
-    <row r="37" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="51"/>
+    </row>
+    <row r="37" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -1774,8 +1893,8 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
@@ -1783,19 +1902,20 @@
       <c r="N37" s="46"/>
       <c r="O37" s="46"/>
       <c r="P37" s="46"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="45"/>
       <c r="U37" s="46"/>
-      <c r="V37" s="48"/>
+      <c r="V37" s="46"/>
       <c r="W37" s="48"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="50"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="49"/>
       <c r="Z37" s="50"/>
-      <c r="AA37" s="51"/>
-    </row>
-    <row r="38" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="51"/>
+    </row>
+    <row r="38" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -1803,8 +1923,8 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="46"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
       <c r="L38" s="46"/>
@@ -1812,19 +1932,20 @@
       <c r="N38" s="46"/>
       <c r="O38" s="46"/>
       <c r="P38" s="46"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="45"/>
       <c r="U38" s="46"/>
-      <c r="V38" s="48"/>
+      <c r="V38" s="46"/>
       <c r="W38" s="48"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="50"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="49"/>
       <c r="Z38" s="50"/>
-      <c r="AA38" s="51"/>
-    </row>
-    <row r="39" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="51"/>
+    </row>
+    <row r="39" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -1832,8 +1953,8 @@
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="46"/>
       <c r="K39" s="46"/>
       <c r="L39" s="46"/>
@@ -1841,19 +1962,20 @@
       <c r="N39" s="46"/>
       <c r="O39" s="46"/>
       <c r="P39" s="46"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="45"/>
       <c r="U39" s="46"/>
-      <c r="V39" s="48"/>
+      <c r="V39" s="46"/>
       <c r="W39" s="48"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="50"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="49"/>
       <c r="Z39" s="50"/>
-      <c r="AA39" s="51"/>
-    </row>
-    <row r="40" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="51"/>
+    </row>
+    <row r="40" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -1861,8 +1983,8 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="46"/>
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
@@ -1870,19 +1992,20 @@
       <c r="N40" s="46"/>
       <c r="O40" s="46"/>
       <c r="P40" s="46"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="45"/>
       <c r="U40" s="46"/>
-      <c r="V40" s="48"/>
+      <c r="V40" s="46"/>
       <c r="W40" s="48"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="50"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="49"/>
       <c r="Z40" s="50"/>
-      <c r="AA40" s="51"/>
-    </row>
-    <row r="41" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="51"/>
+    </row>
+    <row r="41" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -1890,8 +2013,8 @@
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="46"/>
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
@@ -1899,19 +2022,20 @@
       <c r="N41" s="46"/>
       <c r="O41" s="46"/>
       <c r="P41" s="46"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="45"/>
       <c r="U41" s="46"/>
-      <c r="V41" s="48"/>
+      <c r="V41" s="46"/>
       <c r="W41" s="48"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="50"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="49"/>
       <c r="Z41" s="50"/>
-      <c r="AA41" s="51"/>
-    </row>
-    <row r="42" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="51"/>
+    </row>
+    <row r="42" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -1919,8 +2043,8 @@
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="46"/>
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
@@ -1928,19 +2052,20 @@
       <c r="N42" s="46"/>
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="45"/>
       <c r="U42" s="46"/>
-      <c r="V42" s="48"/>
+      <c r="V42" s="46"/>
       <c r="W42" s="48"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="50"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="49"/>
       <c r="Z42" s="50"/>
-      <c r="AA42" s="51"/>
-    </row>
-    <row r="43" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="51"/>
+    </row>
+    <row r="43" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -1948,8 +2073,8 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="46"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46"/>
       <c r="L43" s="46"/>
@@ -1957,19 +2082,20 @@
       <c r="N43" s="46"/>
       <c r="O43" s="46"/>
       <c r="P43" s="46"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="45"/>
       <c r="U43" s="46"/>
-      <c r="V43" s="48"/>
+      <c r="V43" s="46"/>
       <c r="W43" s="48"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="50"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="49"/>
       <c r="Z43" s="50"/>
-      <c r="AA43" s="23"/>
-    </row>
-    <row r="44" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="23"/>
+    </row>
+    <row r="44" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -1977,8 +2103,8 @@
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="46"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
       <c r="L44" s="46"/>
@@ -1986,19 +2112,20 @@
       <c r="N44" s="46"/>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="45"/>
       <c r="U44" s="46"/>
-      <c r="V44" s="48"/>
+      <c r="V44" s="46"/>
       <c r="W44" s="48"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="50"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="50"/>
-      <c r="AA44" s="23"/>
-    </row>
-    <row r="45" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="23"/>
+    </row>
+    <row r="45" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -2006,8 +2133,8 @@
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="46"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -2015,19 +2142,20 @@
       <c r="N45" s="46"/>
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="45"/>
       <c r="U45" s="46"/>
-      <c r="V45" s="48"/>
+      <c r="V45" s="46"/>
       <c r="W45" s="48"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="50"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="49"/>
       <c r="Z45" s="50"/>
-      <c r="AA45" s="23"/>
-    </row>
-    <row r="46" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="23"/>
+    </row>
+    <row r="46" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -2035,8 +2163,8 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="46"/>
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
@@ -2044,19 +2172,20 @@
       <c r="N46" s="46"/>
       <c r="O46" s="46"/>
       <c r="P46" s="46"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="45"/>
       <c r="U46" s="46"/>
-      <c r="V46" s="48"/>
+      <c r="V46" s="46"/>
       <c r="W46" s="48"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="50"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="49"/>
       <c r="Z46" s="50"/>
-      <c r="AA46" s="23"/>
-    </row>
-    <row r="47" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="23"/>
+    </row>
+    <row r="47" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -2064,8 +2193,8 @@
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
@@ -2073,19 +2202,20 @@
       <c r="N47" s="46"/>
       <c r="O47" s="46"/>
       <c r="P47" s="46"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="45"/>
       <c r="U47" s="46"/>
-      <c r="V47" s="48"/>
+      <c r="V47" s="46"/>
       <c r="W47" s="48"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="50"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="49"/>
       <c r="Z47" s="50"/>
-      <c r="AA47" s="23"/>
-    </row>
-    <row r="48" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="23"/>
+    </row>
+    <row r="48" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -2093,8 +2223,8 @@
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="46"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
       <c r="L48" s="46"/>
@@ -2102,19 +2232,20 @@
       <c r="N48" s="46"/>
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="45"/>
       <c r="U48" s="46"/>
-      <c r="V48" s="48"/>
+      <c r="V48" s="46"/>
       <c r="W48" s="48"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="50"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="49"/>
       <c r="Z48" s="50"/>
-      <c r="AA48" s="23"/>
-    </row>
-    <row r="49" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="23"/>
+    </row>
+    <row r="49" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -2122,8 +2253,8 @@
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="46"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
       <c r="L49" s="46"/>
@@ -2131,19 +2262,20 @@
       <c r="N49" s="46"/>
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="45"/>
       <c r="U49" s="46"/>
-      <c r="V49" s="48"/>
+      <c r="V49" s="46"/>
       <c r="W49" s="48"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="50"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="49"/>
       <c r="Z49" s="50"/>
-      <c r="AA49" s="23"/>
-    </row>
-    <row r="50" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="23"/>
+    </row>
+    <row r="50" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -2151,8 +2283,8 @@
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
@@ -2160,19 +2292,20 @@
       <c r="N50" s="46"/>
       <c r="O50" s="46"/>
       <c r="P50" s="46"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="45"/>
       <c r="U50" s="46"/>
-      <c r="V50" s="48"/>
+      <c r="V50" s="46"/>
       <c r="W50" s="48"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="50"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="49"/>
       <c r="Z50" s="50"/>
-      <c r="AA50" s="23"/>
-    </row>
-    <row r="51" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="23"/>
+    </row>
+    <row r="51" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -2180,8 +2313,8 @@
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
@@ -2189,19 +2322,20 @@
       <c r="N51" s="46"/>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="45"/>
       <c r="U51" s="46"/>
-      <c r="V51" s="48"/>
+      <c r="V51" s="46"/>
       <c r="W51" s="48"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="50"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="49"/>
       <c r="Z51" s="50"/>
-      <c r="AA51" s="23"/>
-    </row>
-    <row r="52" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="23"/>
+    </row>
+    <row r="52" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -2209,8 +2343,8 @@
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="46"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
       <c r="L52" s="46"/>
@@ -2218,19 +2352,20 @@
       <c r="N52" s="46"/>
       <c r="O52" s="46"/>
       <c r="P52" s="46"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="45"/>
       <c r="U52" s="46"/>
-      <c r="V52" s="48"/>
+      <c r="V52" s="46"/>
       <c r="W52" s="48"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="50"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="49"/>
       <c r="Z52" s="50"/>
-      <c r="AA52" s="23"/>
-    </row>
-    <row r="53" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="23"/>
+    </row>
+    <row r="53" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -2238,8 +2373,8 @@
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
       <c r="L53" s="46"/>
@@ -2247,19 +2382,20 @@
       <c r="N53" s="46"/>
       <c r="O53" s="46"/>
       <c r="P53" s="46"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="45"/>
       <c r="U53" s="46"/>
-      <c r="V53" s="48"/>
+      <c r="V53" s="46"/>
       <c r="W53" s="48"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="50"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="49"/>
       <c r="Z53" s="50"/>
-      <c r="AA53" s="51"/>
-    </row>
-    <row r="54" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="51"/>
+    </row>
+    <row r="54" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2267,8 +2403,8 @@
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="46"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="46"/>
       <c r="K54" s="46"/>
       <c r="L54" s="46"/>
@@ -2276,19 +2412,20 @@
       <c r="N54" s="46"/>
       <c r="O54" s="46"/>
       <c r="P54" s="46"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="45"/>
       <c r="U54" s="46"/>
-      <c r="V54" s="48"/>
+      <c r="V54" s="46"/>
       <c r="W54" s="48"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="50"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="49"/>
       <c r="Z54" s="50"/>
-      <c r="AA54" s="51"/>
-    </row>
-    <row r="55" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="51"/>
+    </row>
+    <row r="55" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -2296,8 +2433,8 @@
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="46"/>
       <c r="K55" s="46"/>
       <c r="L55" s="46"/>
@@ -2305,19 +2442,20 @@
       <c r="N55" s="46"/>
       <c r="O55" s="46"/>
       <c r="P55" s="46"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="45"/>
       <c r="U55" s="46"/>
-      <c r="V55" s="48"/>
+      <c r="V55" s="46"/>
       <c r="W55" s="48"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="50"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="49"/>
       <c r="Z55" s="50"/>
-      <c r="AA55" s="51"/>
-    </row>
-    <row r="56" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="51"/>
+    </row>
+    <row r="56" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -2325,7 +2463,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
-      <c r="H56" s="46"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
@@ -2334,19 +2472,20 @@
       <c r="N56" s="46"/>
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="45"/>
       <c r="U56" s="46"/>
-      <c r="V56" s="48"/>
+      <c r="V56" s="46"/>
       <c r="W56" s="48"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="50"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="49"/>
       <c r="Z56" s="50"/>
-      <c r="AA56" s="51"/>
-    </row>
-    <row r="57" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="51"/>
+    </row>
+    <row r="57" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -2354,7 +2493,7 @@
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="46"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
@@ -2363,19 +2502,20 @@
       <c r="N57" s="46"/>
       <c r="O57" s="46"/>
       <c r="P57" s="46"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="45"/>
       <c r="U57" s="46"/>
-      <c r="V57" s="48"/>
+      <c r="V57" s="46"/>
       <c r="W57" s="48"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="50"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="49"/>
       <c r="Z57" s="50"/>
-      <c r="AA57" s="51"/>
-    </row>
-    <row r="58" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="51"/>
+    </row>
+    <row r="58" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -2383,7 +2523,7 @@
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
-      <c r="H58" s="46"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
       <c r="K58" s="46"/>
@@ -2392,19 +2532,20 @@
       <c r="N58" s="46"/>
       <c r="O58" s="46"/>
       <c r="P58" s="46"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="45"/>
       <c r="U58" s="46"/>
-      <c r="V58" s="48"/>
+      <c r="V58" s="46"/>
       <c r="W58" s="48"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="50"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="49"/>
       <c r="Z58" s="50"/>
-      <c r="AA58" s="51"/>
-    </row>
-    <row r="59" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="51"/>
+    </row>
+    <row r="59" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -2412,7 +2553,7 @@
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="46"/>
+      <c r="H59" s="30"/>
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
       <c r="K59" s="46"/>
@@ -2421,19 +2562,20 @@
       <c r="N59" s="46"/>
       <c r="O59" s="46"/>
       <c r="P59" s="46"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="45"/>
       <c r="U59" s="46"/>
-      <c r="V59" s="48"/>
+      <c r="V59" s="46"/>
       <c r="W59" s="48"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="50"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="49"/>
       <c r="Z59" s="50"/>
-      <c r="AA59" s="51"/>
-    </row>
-    <row r="60" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="51"/>
+    </row>
+    <row r="60" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -2441,7 +2583,7 @@
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
-      <c r="H60" s="46"/>
+      <c r="H60" s="30"/>
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
@@ -2450,19 +2592,20 @@
       <c r="N60" s="46"/>
       <c r="O60" s="46"/>
       <c r="P60" s="46"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="45"/>
       <c r="U60" s="46"/>
-      <c r="V60" s="48"/>
+      <c r="V60" s="46"/>
       <c r="W60" s="48"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="50"/>
+      <c r="X60" s="48"/>
+      <c r="Y60" s="49"/>
       <c r="Z60" s="50"/>
-      <c r="AA60" s="51"/>
-    </row>
-    <row r="61" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="51"/>
+    </row>
+    <row r="61" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -2470,7 +2613,7 @@
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="46"/>
+      <c r="H61" s="30"/>
       <c r="I61" s="46"/>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -2479,19 +2622,20 @@
       <c r="N61" s="46"/>
       <c r="O61" s="46"/>
       <c r="P61" s="46"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="45"/>
       <c r="U61" s="46"/>
-      <c r="V61" s="48"/>
+      <c r="V61" s="46"/>
       <c r="W61" s="48"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="50"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="49"/>
       <c r="Z61" s="50"/>
-      <c r="AA61" s="51"/>
-    </row>
-    <row r="62" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="51"/>
+    </row>
+    <row r="62" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -2499,7 +2643,7 @@
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
-      <c r="H62" s="46"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
@@ -2508,19 +2652,20 @@
       <c r="N62" s="46"/>
       <c r="O62" s="46"/>
       <c r="P62" s="46"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="45"/>
       <c r="U62" s="46"/>
-      <c r="V62" s="48"/>
+      <c r="V62" s="46"/>
       <c r="W62" s="48"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="50"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="49"/>
       <c r="Z62" s="50"/>
-      <c r="AA62" s="51"/>
-    </row>
-    <row r="63" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="51"/>
+    </row>
+    <row r="63" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -2528,8 +2673,8 @@
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="48"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="48"/>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
@@ -2537,19 +2682,20 @@
       <c r="N63" s="48"/>
       <c r="O63" s="48"/>
       <c r="P63" s="48"/>
-      <c r="Q63" s="50"/>
+      <c r="Q63" s="48"/>
       <c r="R63" s="50"/>
-      <c r="S63" s="48"/>
+      <c r="S63" s="50"/>
       <c r="T63" s="48"/>
       <c r="U63" s="48"/>
       <c r="V63" s="48"/>
       <c r="W63" s="48"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="50"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="49"/>
       <c r="Z63" s="50"/>
-      <c r="AA63" s="51"/>
-    </row>
-    <row r="64" spans="1:27" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="51"/>
+    </row>
+    <row r="64" spans="1:28" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -2557,7 +2703,7 @@
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
-      <c r="H64" s="48"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="48"/>
       <c r="J64" s="48"/>
       <c r="K64" s="48"/>
@@ -2567,23 +2713,24 @@
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
       <c r="Q64" s="48"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="50"/>
       <c r="T64" s="48"/>
       <c r="U64" s="48"/>
       <c r="V64" s="48"/>
       <c r="W64" s="48"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="50"/>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="49"/>
       <c r="Z64" s="50"/>
-      <c r="AA64" s="51"/>
-    </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="51"/>
+    </row>
+    <row r="65" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
-      <c r="H65" s="48"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="48"/>
       <c r="J65" s="48"/>
       <c r="K65" s="48"/>
@@ -2593,23 +2740,24 @@
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
       <c r="Q65" s="48"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="50"/>
       <c r="T65" s="48"/>
       <c r="U65" s="48"/>
       <c r="V65" s="48"/>
       <c r="W65" s="48"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="50"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="49"/>
       <c r="Z65" s="50"/>
-      <c r="AA65" s="51"/>
-    </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="51"/>
+    </row>
+    <row r="66" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="21"/>
       <c r="I66" s="48"/>
       <c r="J66" s="48"/>
       <c r="K66" s="48"/>
@@ -2619,23 +2767,24 @@
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
       <c r="Q66" s="48"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="50"/>
       <c r="T66" s="48"/>
       <c r="U66" s="48"/>
       <c r="V66" s="48"/>
       <c r="W66" s="48"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="50"/>
+      <c r="X66" s="48"/>
+      <c r="Y66" s="49"/>
       <c r="Z66" s="50"/>
-      <c r="AA66" s="51"/>
-    </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="51"/>
+    </row>
+    <row r="67" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
-      <c r="H67" s="48"/>
+      <c r="H67" s="21"/>
       <c r="I67" s="48"/>
       <c r="J67" s="48"/>
       <c r="K67" s="48"/>
@@ -2645,24 +2794,25 @@
       <c r="O67" s="48"/>
       <c r="P67" s="48"/>
       <c r="Q67" s="48"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="50"/>
       <c r="T67" s="48"/>
       <c r="U67" s="48"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="50"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="49"/>
       <c r="Z67" s="50"/>
-      <c r="AA67" s="51"/>
-    </row>
-    <row r="68" spans="4:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="51"/>
+    </row>
+    <row r="68" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="5"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="48"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -2671,43 +2821,45 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="7"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="7"/>
+      <c r="X68" s="5"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="6"/>
+    </row>
+    <row r="69" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R70" s="47"/>
-    </row>
-    <row r="72" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R72" s="9"/>
-    </row>
-    <row r="73" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R73" s="9"/>
-    </row>
-    <row r="74" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R74" s="9"/>
-    </row>
-    <row r="75" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="R75" s="9"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="S70" s="47"/>
+    </row>
+    <row r="72" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="S73" s="9"/>
+    </row>
+    <row r="74" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="S75" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2745,7 +2897,7 @@
         <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -2759,7 +2911,7 @@
         <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -2773,7 +2925,7 @@
         <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2787,7 +2939,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
